--- a/biology/Zoologie/Boloria_astarte/Boloria_astarte.xlsx
+++ b/biology/Zoologie/Boloria_astarte/Boloria_astarte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boloria astarte est une espèce de lépidoptères de la famille des Nymphalidae et de la sous-famille des Heliconiinae.
 </t>
@@ -511,17 +523,14 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'espèce Boloria astarte a été décrite par Doubleday en 1848.
 Synonymes :
 Clossiana astarte Doubleday, 1848
-Argynnis victoria Edwards, 1891[1]
-Noms vernaculaires
-Boloria astarte se nomme en anglais Astarte Fritillary ou Arctic Ridge Fritillary[1].
-Sous-espèces
-Boloria (Clossiana) astarte astarte dans le nord-est de la Colombie-Britannique et dans l'Alberta
-Boloria (Clossiana) astarte distincta, souvent considérée comme une espèce distincte sous le nom de Boloria distincta[1]</t>
+Argynnis victoria Edwards, 1891</t>
         </is>
       </c>
     </row>
@@ -546,13 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon de taille moyenne plus grand que les autres Fritillary d'Amérique. Il présente un dessus orange orné de dessins de couleur marron[2].
-Le revers des antérieures possède une ornementation semblable alors que les postérieures présentent une partie basale traversée de taches formant une bande blanche et une bande submarginale orange à ligne de points noirs.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boloria astarte se nomme en anglais Astarte Fritillary ou Arctic Ridge Fritillary.
 </t>
         </is>
       </c>
@@ -578,17 +592,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il hiverne à l'état de chenille les deux années consécutives nécessaires à son développement
-Il vole en une génération entre mi-juin et mi-août[2].
-Plantes hôtes
-Sa plante hôte est Saxifraga bronchialis[1].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Boloria (Clossiana) astarte astarte dans le nord-est de la Colombie-Britannique et dans l'Alberta
+Boloria (Clossiana) astarte distincta, souvent considérée comme une espèce distincte sous le nom de Boloria distincta</t>
         </is>
       </c>
     </row>
@@ -613,17 +629,198 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon de taille moyenne plus grand que les autres Fritillary d'Amérique. Il présente un dessus orange orné de dessins de couleur marron.
+Le revers des antérieures possède une ornementation semblable alors que les postérieures présentent une partie basale traversée de taches formant une bande blanche et une bande submarginale orange à ligne de points noirs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Boloria_astarte</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_astarte</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il hiverne à l'état de chenille les deux années consécutives nécessaires à son développement
+Il vole en une génération entre mi-juin et mi-août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Boloria_astarte</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_astarte</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante hôte est Saxifraga bronchialis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Boloria_astarte</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_astarte</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boloria astarte  est présent dans le Nord-Ouest de Amérique du Nord, dans les hautes montagnes de l'Alberta et de la Colombie-Britannique, dans l'État de Washington et au Montana[1]
-,[3].
-Biotope
-C'est un papillon des montagnes des crêtes et des zones d'éboulis en altitude.
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boloria astarte  est présent dans le Nord-Ouest de Amérique du Nord, dans les hautes montagnes de l'Alberta et de la Colombie-Britannique, dans l'État de Washington et au Montana
+,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Boloria_astarte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_astarte</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon des montagnes des crêtes et des zones d'éboulis en altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Boloria_astarte</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_astarte</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
